--- a/DataGenerator/Settings.xlsx
+++ b/DataGenerator/Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Alias</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>SiteCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WhCode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,10 +526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -579,6 +583,23 @@
       </c>
       <c r="E3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/DataGenerator/Settings.xlsx
+++ b/DataGenerator/Settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -30,42 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Alias</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mmInoutHeader</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmInoutItem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Header</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>InoutNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>InoutGubun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -105,11 +75,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>xErpUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SiteMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EagleMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CompanyMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erpUser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eagle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>comp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>SiteCode</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WhCode</t>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ComCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erpUser</t>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testUser</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,8 +179,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -178,8 +204,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="TableName"/>
     <tableColumn id="2" name="Alias"/>
@@ -478,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -492,7 +518,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -500,18 +526,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -526,80 +568,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +616,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
       <formula1>"≠,=,≧,≦,&gt;,&lt;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12 D2:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12 A2:A12">
       <formula1>Alias</formula1>
     </dataValidation>
   </dataValidations>
@@ -622,40 +630,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
         <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/Settings.xlsx
+++ b/DataGenerator/Settings.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Alias</t>
     <phoneticPr fontId="1"/>
@@ -75,45 +75,138 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>xErpUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SiteMaster</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EagleMaster</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CompanyMaster</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>erpUser</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>site</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eagle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comp</t>
-  </si>
-  <si>
-    <t>comp</t>
+    <t>poOrderHeader</t>
+  </si>
+  <si>
+    <t>CaseAcc</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CsMaster</t>
+  </si>
+  <si>
+    <t>EmpMaster</t>
+  </si>
+  <si>
+    <t>DeptMaster_jpn</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SysCase</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CaseCode</t>
+  </si>
+  <si>
+    <t>CsCode</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmpCode</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_DeptCode</t>
+  </si>
+  <si>
+    <t>DeptCode</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ComCode</t>
+  </si>
+  <si>
+    <t>GSK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CaseID</t>
+  </si>
+  <si>
+    <t>poPO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CaseUse</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SiteCode</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FormID</t>
+  </si>
+  <si>
+    <t>PO492</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SysCase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S60</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -121,18 +214,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ComCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>erpUser</t>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>testUser</t>
+    <t>20161207</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -204,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="TableName"/>
     <tableColumn id="2" name="Alias"/>
@@ -229,8 +315,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル35" displayName="テーブル35" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル35" displayName="テーブル35" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Table"/>
     <tableColumn id="2" name="Column"/>
@@ -504,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -529,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -537,23 +623,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -568,10 +662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -595,19 +689,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +778,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
       <formula1>"≠,=,≧,≦,&gt;,&lt;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12 A2:A12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12 D2:D12">
       <formula1>Alias</formula1>
     </dataValidation>
   </dataValidations>
@@ -630,10 +792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -657,39 +819,179 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13">
       <formula1>Alias</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
       <formula1>"≠,=,≧,≦,&gt;,&lt;"</formula1>
     </dataValidation>
   </dataValidations>
